--- a/Docs/Diagrama Gantt.xlsx
+++ b/Docs/Diagrama Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Desktop\TFG\TFGJesusOrtegaZorrilla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97E3A8E-4AC9-4014-A249-801C3E719284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B370E46-11B9-4F7A-AD95-01923A31E83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2985" windowWidth="20730" windowHeight="11040" xr2:uid="{A5CAC140-86C7-410A-9429-E8A02180934C}"/>
   </bookViews>
